--- a/April'21/20.04.2021/Bank Statement.xlsx
+++ b/April'21/20.04.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -931,9 +931,6 @@
     <t>12.04.2021</t>
   </si>
   <si>
-    <t>Date:14.04.2021</t>
-  </si>
-  <si>
     <t>13.04.2021</t>
   </si>
   <si>
@@ -977,6 +974,9 @@
   </si>
   <si>
     <t>Rocky</t>
+  </si>
+  <si>
+    <t>Date:21.04.2021</t>
   </si>
 </sst>
 </file>
@@ -3200,6 +3200,30 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3249,30 +3273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3996,70 +3996,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="334" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="335" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="327"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="327"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="344" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
-      <c r="O3" s="337"/>
-      <c r="P3" s="337"/>
-      <c r="Q3" s="337"/>
-      <c r="R3" s="338"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="345"/>
+      <c r="R3" s="346"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -4068,55 +4068,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="330" t="s">
+      <c r="B4" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="332" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="332" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="332" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="332" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="332" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="332" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="339" t="s">
+      <c r="K4" s="347" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="341" t="s">
+      <c r="L4" s="324" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="343" t="s">
+      <c r="M4" s="326" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="345" t="s">
+      <c r="N4" s="328" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="347" t="s">
+      <c r="O4" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="332" t="s">
+      <c r="P4" s="340" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="334" t="s">
+      <c r="Q4" s="342" t="s">
         <v>130</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -4129,23 +4129,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="329"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="340"/>
-      <c r="L5" s="342"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="346"/>
-      <c r="O5" s="348"/>
-      <c r="P5" s="333"/>
-      <c r="Q5" s="335"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="348"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="327"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="341"/>
+      <c r="Q5" s="343"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="16" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="115"/>
       <c r="C16" s="116"/>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="17" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="115"/>
       <c r="C17" s="116">
@@ -4572,7 +4572,7 @@
     </row>
     <row r="18" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="115"/>
       <c r="C18" s="116">
@@ -4609,7 +4609,7 @@
     </row>
     <row r="19" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="115"/>
       <c r="C19" s="116"/>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="20" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="115"/>
       <c r="C20" s="116">
@@ -7145,14 +7145,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7165,6 +7157,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7668,7 +7668,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="58">
         <v>445000</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="58">
         <v>0</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="58">
         <v>275000</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="50">
         <v>273000</v>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="50">
         <v>137000</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="50">
         <v>197000</v>
@@ -9208,7 +9208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="356" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="357"/>
       <c r="C2" s="357"/>
@@ -9593,7 +9593,7 @@
       <c r="D20" s="13"/>
       <c r="F20" s="26"/>
       <c r="J20" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K20" s="83" t="s">
         <v>105</v>
@@ -9731,8 +9731,8 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T29" sqref="T29"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="375" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="376"/>
       <c r="C5" s="192"/>
@@ -10397,11 +10397,13 @@
       <c r="D20" s="177"/>
       <c r="E20" s="165"/>
       <c r="F20" s="167">
-        <v>110</v>
-      </c>
-      <c r="G20" s="167"/>
+        <v>160</v>
+      </c>
+      <c r="G20" s="167">
+        <v>400</v>
+      </c>
       <c r="H20" s="167">
-        <v>90</v>
+        <v>590</v>
       </c>
       <c r="I20" s="167"/>
       <c r="J20" s="171"/>
@@ -10409,7 +10411,7 @@
       <c r="L20" s="167"/>
       <c r="M20" s="168"/>
       <c r="N20" s="169">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O20" s="169">
         <v>10</v>
@@ -10434,10 +10436,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="177"/>
       <c r="E21" s="165"/>
@@ -10481,10 +10483,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="150" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="177"/>
       <c r="E22" s="165"/>
@@ -10567,7 +10569,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="150" t="s">
         <v>159</v>
@@ -10607,7 +10609,7 @@
       </c>
       <c r="B25" s="166"/>
       <c r="C25" s="150" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="177"/>
       <c r="E25" s="165"/>
@@ -10705,15 +10707,15 @@
       </c>
       <c r="F29" s="200">
         <f t="shared" si="0"/>
-        <v>1310</v>
+        <v>1360</v>
       </c>
       <c r="G29" s="200">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>1750</v>
       </c>
       <c r="H29" s="200">
         <f t="shared" si="0"/>
-        <v>2820</v>
+        <v>3320</v>
       </c>
       <c r="I29" s="200">
         <f t="shared" si="0"/>
@@ -10737,7 +10739,7 @@
       </c>
       <c r="N29" s="200">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="O29" s="200">
         <f t="shared" si="0"/>
@@ -12933,8 +12935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12974,7 +12976,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="389" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B2" s="389"/>
       <c r="C2" s="389"/>
